--- a/src/main/resources/testcase/login/login.xlsx
+++ b/src/main/resources/testcase/login/login.xlsx
@@ -29,34 +29,35 @@
     <t>Password</t>
   </si>
   <si>
+    <t>用户名不能为空</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
+    <t>非法的手机号</t>
+  </si>
+  <si>
+    <t>13888887777</t>
+  </si>
+  <si>
+    <t>密码不能为空</t>
+  </si>
+  <si>
+    <t>账号信息错误</t>
+  </si>
+  <si>
+    <t>1388888777</t>
+  </si>
+  <si>
+    <t>PartialUrl</t>
+  </si>
+  <si>
+    <t>index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ExpectedTips</t>
-  </si>
-  <si>
-    <t>用户名不能为空</t>
-  </si>
-  <si>
-    <t>lemon</t>
-  </si>
-  <si>
-    <t>非法的手机号</t>
-  </si>
-  <si>
-    <t>13888887777</t>
-  </si>
-  <si>
-    <t>密码不能为空</t>
-  </si>
-  <si>
-    <t>账号信息错误</t>
-  </si>
-  <si>
-    <t>1388888777</t>
-  </si>
-  <si>
-    <t>PartialUrl</t>
-  </si>
-  <si>
-    <t>index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +425,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -441,52 +442,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>12345</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -520,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -531,7 +532,7 @@
         <v>123456</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testcase/login/login.xlsx
+++ b/src/main/resources/testcase/login/login.xlsx
@@ -12,16 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8385"/>
   </bookViews>
   <sheets>
-    <sheet name="登录失败" sheetId="1" r:id="rId1"/>
-    <sheet name="登录成功" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="登录成功" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Phone</t>
   </si>
@@ -29,35 +28,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>用户名不能为空</t>
-  </si>
-  <si>
-    <t>lemon</t>
-  </si>
-  <si>
-    <t>非法的手机号</t>
-  </si>
-  <si>
-    <t>13888887777</t>
-  </si>
-  <si>
-    <t>密码不能为空</t>
-  </si>
-  <si>
-    <t>账号信息错误</t>
-  </si>
-  <si>
-    <t>1388888777</t>
-  </si>
-  <si>
     <t>PartialUrl</t>
   </si>
   <si>
     <t>index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExpectedTips</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,87 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12.875"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>12345</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -521,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -532,7 +429,7 @@
         <v>123456</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -542,7 +439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
